--- a/data_fsr2.xlsx
+++ b/data_fsr2.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B218"/>
+  <dimension ref="A1:B412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45393.57563324384</v>
+        <v>45398.58416134836</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45393.57563768936</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45393.57564103958</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45393.57564433483</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45393.57564794366</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45393.57565104432</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45393.57565486845</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45393.57565793205</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45393.57566142325</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45393.57566468169</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45393.5756673857</v>
+        <v>45398.58416152971</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45393.57567078477</v>
+        <v>45398.58416199083</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45393.57567371063</v>
+        <v>45398.58416371293</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45393.57567750375</v>
+        <v>45398.58416529855</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45393.57568079622</v>
+        <v>45398.58416716359</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45393.57568367388</v>
+        <v>45398.58416878387</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45393.57568643027</v>
+        <v>45398.58417056369</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45393.57568938875</v>
+        <v>45398.58417238676</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45393.57569222102</v>
+        <v>45398.58417403859</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -603,31 +603,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45393.57569526206</v>
+        <v>45398.58417588199</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45393.57569854915</v>
+        <v>45398.58417765563</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>906</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45393.57570190073</v>
+        <v>45398.58417930756</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>847</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45393.57570479444</v>
+        <v>45398.58418115007</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45393.57570806758</v>
+        <v>45398.58418285642</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45393.57571116601</v>
+        <v>45398.58418447865</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -651,23 +651,23 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45393.57571413962</v>
+        <v>45398.58418629086</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45393.57571725416</v>
+        <v>45398.58418812436</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45393.57572159202</v>
+        <v>45398.58418973295</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45393.57572498035</v>
+        <v>45398.58419157486</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45393.57572833478</v>
+        <v>45398.58419323059</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45393.57573210476</v>
+        <v>45398.5841949689</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45393.57573528664</v>
+        <v>45398.58419667641</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45393.57573835306</v>
+        <v>45398.58419848154</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45393.57574181407</v>
+        <v>45398.58420013687</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -723,31 +723,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45393.57574574038</v>
+        <v>45398.58420195603</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>910</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45393.5757486972</v>
+        <v>45398.58420373721</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>965</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45393.57575153228</v>
+        <v>45398.58420542256</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45393.57575464871</v>
+        <v>45398.58420722433</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45393.57575752082</v>
+        <v>45398.58420887666</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -763,31 +763,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45393.57576034027</v>
+        <v>45398.58421073084</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45393.57576332839</v>
+        <v>45398.58421246281</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45393.57576736214</v>
+        <v>45398.58421413157</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45393.57577043799</v>
+        <v>45398.58421578496</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45393.57577355603</v>
+        <v>45398.58421760789</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45393.57577658245</v>
+        <v>45398.58421926626</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45393.5757796152</v>
+        <v>45398.58422111195</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -819,47 +819,47 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45393.57578295554</v>
+        <v>45398.58422278496</v>
       </c>
       <c r="B48" t="n">
-        <v>965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45393.57578614967</v>
+        <v>45398.58422458993</v>
       </c>
       <c r="B49" t="n">
-        <v>901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45393.57578890482</v>
+        <v>45398.58422629751</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>705</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45393.57579235984</v>
+        <v>45398.58422796877</v>
       </c>
       <c r="B51" t="n">
-        <v>931</v>
+        <v>960</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45393.57579527635</v>
+        <v>45398.58422980626</v>
       </c>
       <c r="B52" t="n">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45393.57579841786</v>
+        <v>45398.58423152944</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -867,47 +867,47 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45393.57580125234</v>
+        <v>45398.58423329174</v>
       </c>
       <c r="B54" t="n">
-        <v>934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45393.57580401328</v>
+        <v>45398.58423494499</v>
       </c>
       <c r="B55" t="n">
-        <v>867</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45393.57580688522</v>
+        <v>45398.58423676528</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45393.57580966277</v>
+        <v>45398.58423843268</v>
       </c>
       <c r="B57" t="n">
-        <v>946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45393.57581240284</v>
+        <v>45398.58424026534</v>
       </c>
       <c r="B58" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45393.57581542527</v>
+        <v>45398.58424197966</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -915,15 +915,15 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45393.57581921252</v>
+        <v>45398.58424368849</v>
       </c>
       <c r="B60" t="n">
-        <v>963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45393.57582233346</v>
+        <v>45398.58424534577</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45393.57582539205</v>
+        <v>45398.58424717992</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -939,31 +939,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45393.57582870968</v>
+        <v>45398.58424885404</v>
       </c>
       <c r="B63" t="n">
-        <v>969</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45393.57583168969</v>
+        <v>45398.58425068973</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45393.57583467793</v>
+        <v>45398.58425232564</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>936</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45393.57583772294</v>
+        <v>45398.58425416423</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45393.57584066576</v>
+        <v>45398.58425591726</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -979,23 +979,23 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45393.57584445094</v>
+        <v>45398.58425763465</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45393.57584739965</v>
+        <v>45398.58425928156</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45393.57585040986</v>
+        <v>45398.58426112188</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45393.57585310798</v>
+        <v>45398.58426269816</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45393.57585640129</v>
+        <v>45398.58426453707</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45393.57586001143</v>
+        <v>45398.58426618013</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45393.5758629236</v>
+        <v>45398.58426805748</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45393.57586601309</v>
+        <v>45398.5842697491</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45393.57586987101</v>
+        <v>45398.58427140655</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45393.57587296613</v>
+        <v>45398.58427324289</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -1059,31 +1059,31 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45393.57587565239</v>
+        <v>45398.58427491933</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45393.57587871347</v>
+        <v>45398.5842767479</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>948</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45393.5758816308</v>
+        <v>45398.58427856116</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>914</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45393.5758845071</v>
+        <v>45398.58428027116</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45393.57588779802</v>
+        <v>45398.58428195736</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -1099,23 +1099,23 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45393.57589108599</v>
+        <v>45398.58428374652</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45393.57589415973</v>
+        <v>45398.58428544736</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45393.57589703324</v>
+        <v>45398.5842870623</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45393.5759001573</v>
+        <v>45398.58428887016</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45393.57590320196</v>
+        <v>45398.5842907025</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45393.57590612117</v>
+        <v>45398.58429234313</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45393.57590921105</v>
+        <v>45398.58429413304</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45393.57591229367</v>
+        <v>45398.58429586877</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45393.57591558769</v>
+        <v>45398.58429760399</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45393.57591926049</v>
+        <v>45398.58429930354</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45393.57592254628</v>
+        <v>45398.58430112293</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45393.57592579156</v>
+        <v>45398.58430275432</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1195,31 +1195,31 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45393.57592899368</v>
+        <v>45398.58430456963</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>903</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45393.57593236907</v>
+        <v>45398.58430619473</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45393.57593514896</v>
+        <v>45398.58430802605</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>739</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45393.57593862605</v>
+        <v>45398.58430967927</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45393.5759419988</v>
+        <v>45398.58431142464</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1235,23 +1235,23 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45393.5759446973</v>
+        <v>45398.58431325515</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45393.57594817059</v>
+        <v>45398.58431507103</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45393.57595135278</v>
+        <v>45398.58431670966</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45393.57595435927</v>
+        <v>45398.58431835857</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45393.57595710221</v>
+        <v>45398.58432021117</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45393.5759605385</v>
+        <v>45398.58432183325</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45393.57596349357</v>
+        <v>45398.5843236842</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45393.57596655541</v>
+        <v>45398.58432530148</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45393.57596986119</v>
+        <v>45398.5843271285</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1307,39 +1307,39 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45393.57597272129</v>
+        <v>45398.58432879895</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>537</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45393.57597603736</v>
+        <v>45398.58433062029</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45393.57597921433</v>
+        <v>45398.58433225637</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45393.57598198234</v>
+        <v>45398.58433409693</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45393.57598539777</v>
+        <v>45398.58433586456</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1347,31 +1347,31 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45393.5759883076</v>
+        <v>45398.58433749698</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45393.57599102627</v>
+        <v>45398.58433931198</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45393.57599393118</v>
+        <v>45398.58434093639</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45393.57599701935</v>
+        <v>45398.58434281718</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45393.57599993325</v>
+        <v>45398.58434442171</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45393.57600336604</v>
+        <v>45398.58434623649</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45393.57600626464</v>
+        <v>45398.58434807854</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45393.57600937122</v>
+        <v>45398.58434975408</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -1411,31 +1411,31 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45393.57601245095</v>
+        <v>45398.58435145404</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>890</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45393.57601534942</v>
+        <v>45398.58435321209</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45393.57601846905</v>
+        <v>45398.58435505086</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>678</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45393.57602151578</v>
+        <v>45398.58435668558</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -1443,31 +1443,31 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45393.57602538031</v>
+        <v>45398.58435850492</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45393.57602820781</v>
+        <v>45398.58436026137</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45393.57603093654</v>
+        <v>45398.5843618519</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45393.57603441385</v>
+        <v>45398.58436371689</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45393.57603734924</v>
+        <v>45398.58436533263</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45393.57604074686</v>
+        <v>45398.58436706159</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45393.57604395691</v>
+        <v>45398.58436887563</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45393.57604748471</v>
+        <v>45398.58437062749</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -1507,31 +1507,31 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45393.57605054002</v>
+        <v>45398.58437239647</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45393.57605350739</v>
+        <v>45398.58437414227</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>949</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45393.57605671814</v>
+        <v>45398.58437580779</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>954</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45393.57605953994</v>
+        <v>45398.58437759257</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45393.57606271346</v>
+        <v>45398.58437924551</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -1547,23 +1547,23 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45393.57606601647</v>
+        <v>45398.58438105092</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45393.57607011049</v>
+        <v>45398.58438287314</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45393.57607303541</v>
+        <v>45398.58438454755</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45393.57607668588</v>
+        <v>45398.58438633269</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45393.57608017475</v>
+        <v>45398.58438798558</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45393.57608358579</v>
+        <v>45398.58438976233</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45393.57608670186</v>
+        <v>45398.58439149366</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45393.57609029057</v>
+        <v>45398.58439315263</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -1611,31 +1611,31 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45393.57609318336</v>
+        <v>45398.58439492695</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45393.57609630677</v>
+        <v>45398.58439675971</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45393.57609951602</v>
+        <v>45398.58439845289</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45393.57610266199</v>
+        <v>45398.58440011599</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -1643,23 +1643,23 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45393.57610534111</v>
+        <v>45398.58440191614</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45393.57610845279</v>
+        <v>45398.58440368971</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45393.57611208604</v>
+        <v>45398.58440532023</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45393.57611554195</v>
+        <v>45398.58440714239</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45393.57611911683</v>
+        <v>45398.58440878198</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45393.57612230964</v>
+        <v>45398.58441059475</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -1691,39 +1691,39 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45393.57612540448</v>
+        <v>45398.5844122385</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45393.5761285958</v>
+        <v>45398.58441407215</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>904</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45393.57613240429</v>
+        <v>45398.58441580126</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>958</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45393.57613633661</v>
+        <v>45398.58441753153</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45393.57613979016</v>
+        <v>45398.58441927857</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -1731,31 +1731,31 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45393.57614326235</v>
+        <v>45398.58442107835</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45393.57614635918</v>
+        <v>45398.58442274592</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45393.57614988457</v>
+        <v>45398.5844245831</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45393.57615427672</v>
+        <v>45398.58442629203</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45393.57615742486</v>
+        <v>45398.58442797675</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45393.57616069182</v>
+        <v>45398.58442960935</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45393.57616378559</v>
+        <v>45398.58443145556</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -1787,39 +1787,39 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45393.57616682551</v>
+        <v>45398.58443324691</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45393.57617051702</v>
+        <v>45398.58443501261</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45393.57617400986</v>
+        <v>45398.58443665371</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>958</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45393.57617708676</v>
+        <v>45398.58443847267</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45393.57617997426</v>
+        <v>45398.5844401939</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -1827,23 +1827,23 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45393.57618301522</v>
+        <v>45398.58444196817</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45393.57618678646</v>
+        <v>45398.58444362772</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45393.57618972039</v>
+        <v>45398.58444537087</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45393.57619242537</v>
+        <v>45398.58444701927</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45393.57619534343</v>
+        <v>45398.58444884644</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45393.57619860166</v>
+        <v>45398.58445049037</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45393.5762013436</v>
+        <v>45398.58445234643</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45393.57620475124</v>
+        <v>45398.58445398116</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45393.57620784025</v>
+        <v>45398.58445580535</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45393.57621092616</v>
+        <v>45398.58445744171</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45393.57621419767</v>
+        <v>45398.58445929543</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45393.57621691062</v>
+        <v>45398.58446088677</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45393.5762213113</v>
+        <v>45398.58446275926</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45393.57622455034</v>
+        <v>45398.58446455503</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45393.5762274519</v>
+        <v>45398.5844662397</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45393.57623052675</v>
+        <v>45398.5844679259</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45393.57623319198</v>
+        <v>45398.58446972923</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45393.5762361594</v>
+        <v>45398.58447147549</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45393.57623907131</v>
+        <v>45398.58447321106</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45393.57624197138</v>
+        <v>45398.58447495883</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45393.57624526637</v>
+        <v>45398.5844766936</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
@@ -1995,23 +1995,23 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45393.57624843678</v>
+        <v>45398.58447830603</v>
       </c>
       <c r="B195" t="n">
-        <v>958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45393.57625125646</v>
+        <v>45398.58448018025</v>
       </c>
       <c r="B196" t="n">
-        <v>665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45393.57625411469</v>
+        <v>45398.58448175053</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45393.57625721635</v>
+        <v>45398.58448365662</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45393.57625992432</v>
+        <v>45398.58448537753</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45393.57626283222</v>
+        <v>45398.58448700974</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45393.57626743977</v>
+        <v>45398.58448885668</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -2051,23 +2051,23 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45393.57627028415</v>
+        <v>45398.58449061877</v>
       </c>
       <c r="B202" t="n">
-        <v>918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45393.57627315369</v>
+        <v>45398.58449226926</v>
       </c>
       <c r="B203" t="n">
-        <v>939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45393.57627607669</v>
+        <v>45398.58449408127</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45393.57627951351</v>
+        <v>45398.58449581452</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45393.57628314017</v>
+        <v>45398.58449745263</v>
       </c>
       <c r="B206" t="n">
         <v>0</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45393.57628624653</v>
+        <v>45398.58449928032</v>
       </c>
       <c r="B207" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45393.57629002168</v>
+        <v>45398.58450106139</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45393.57629294626</v>
+        <v>45398.58450262477</v>
       </c>
       <c r="B209" t="n">
         <v>0</v>
@@ -2115,15 +2115,15 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45393.5762960369</v>
+        <v>45398.58450444303</v>
       </c>
       <c r="B210" t="n">
-        <v>948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45393.57629915914</v>
+        <v>45398.58450627579</v>
       </c>
       <c r="B211" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45393.57630187091</v>
+        <v>45398.58450797224</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45393.57630492263</v>
+        <v>45398.5845095602</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45393.57630840556</v>
+        <v>45398.58451138261</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45393.57631164967</v>
+        <v>45398.5845131473</v>
       </c>
       <c r="B215" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45393.57631507615</v>
+        <v>45398.58451488554</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45393.57631833756</v>
+        <v>45398.58451670468</v>
       </c>
       <c r="B217" t="n">
         <v>0</v>
@@ -2179,9 +2179,1561 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45393.57632142565</v>
+        <v>45398.58451833908</v>
       </c>
       <c r="B218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45398.58452011436</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45398.58452175918</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45398.58452358106</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45398.58452529176</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45398.58452708898</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45398.58452872772</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45398.58453055712</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45398.58453229423</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45398.58453399726</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45398.58453579338</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45398.58453750912</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45398.58453926122</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45398.58454092097</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45398.58454276616</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45398.58454443205</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45398.58454606598</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45398.58454788344</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45398.58454952299</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45398.58455136564</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45398.5845531895</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45398.58455483178</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45398.58455658396</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45398.58455833492</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45398.58456002851</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45398.5845618053</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45398.58456349015</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45398.58456535787</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45398.58456695589</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45398.58456882088</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45398.58457039203</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45398.58457222201</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45398.58457403969</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45398.58457569139</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45398.58457750724</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45398.58457914662</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45398.58458098096</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45398.58458260462</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45398.58458445713</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45398.58458610301</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45398.58458788067</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45398.58458952617</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45398.58459135528</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45398.5845930076</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45398.5845947874</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45398.58459661922</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45398.58459831045</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45398.58460004225</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45398.58460188089</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45398.58460354219</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45398.58460535229</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45398.58460707795</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45398.58460871353</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45398.58461052761</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45398.58461217874</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45398.58461399949</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45398.58461563595</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45398.58461746758</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45398.58461909033</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45398.58462093012</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45398.58462258431</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45398.58462444124</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45398.58462611412</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45398.58462793156</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45398.58462956464</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45398.58463125684</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45398.58463307926</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45398.5846348405</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45398.58463662321</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45398.58463825869</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45398.58464007814</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45398.58464172872</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45398.58464340273</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45398.58464523348</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45398.58464704852</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45398.58464877379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45398.58465040841</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45398.58465222523</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45398.58465386558</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45398.58465563218</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45398.58465747183</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45398.58465911307</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45398.58466081854</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45398.58466267026</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45398.58466435096</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45398.58466598889</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45398.58466781394</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45398.58466965055</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45398.58467130121</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45398.58467312765</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45398.58467480963</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45398.58467646155</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45398.58467828451</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45398.58468003347</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45398.58468166714</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45398.58468348863</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45398.5846853047</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45398.58468694816</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45398.58468877214</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45398.58469041062</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45398.58469221563</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45398.58469386604</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45398.58469568907</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45398.58469744711</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45398.58469911187</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45398.5847009249</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45398.58470257121</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45398.58470436501</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45398.58470601368</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45398.58470785324</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45398.58470948817</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45398.58471126521</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45398.58471308118</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45398.58471472218</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45398.58471655169</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45398.58471823105</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45398.5847200237</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45398.58472176576</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>45398.58472351631</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>45398.58472528722</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>45398.58472700063</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45398.58472869603</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45398.58473049764</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45398.58473217084</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45398.58473387403</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45398.58473555324</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45398.58473737563</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45398.58473902154</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45398.58474083808</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45398.58474254442</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45398.58474439067</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45398.58474604779</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45398.58474783499</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45398.58474953034</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45398.58475131165</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45398.58475306625</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45398.58475479788</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45398.58475642569</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45398.58475824737</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45398.58476006988</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45398.58476171058</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45398.58476353108</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45398.58476523867</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45398.58476697566</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45398.5847687393</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45398.584770389</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45398.58477221886</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45398.58477387058</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45398.58477571811</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45398.58477741441</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45398.58477914974</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45398.58478080158</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45398.58478264268</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45398.58478439593</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45398.58478605071</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45398.58478776353</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45398.58478958387</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45398.58479126383</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45398.58479304585</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45398.5847947268</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45398.58479647095</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45398.58479829757</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45398.58479996837</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>45398.58480179919</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45398.58480338383</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45398.58480524465</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45398.58480693059</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>45398.58480869651</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>45398.58481035211</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>45398.58481218439</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>45398.58481382712</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45398.58481564945</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45398.5848174169</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45398.58481911929</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45398.58482085806</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45398.58482256346</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45398.58482432216</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45398.58482604309</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45398.58482784325</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45398.58482952203</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45398.58483130774</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45398.58483300199</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45398.58483464108</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45398.5848364843</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45398.58483828315</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45398.58483996627</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45398.58484176686</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45398.58484344448</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45398.5848451467</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>45398.5848469242</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45398.58484859733</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45398.58485043066</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45398.58485219718</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>45398.58485388879</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>45398.58485549239</v>
+      </c>
+      <c r="B412" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data_fsr2.xlsx
+++ b/data_fsr2.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B412"/>
+  <dimension ref="A1:B400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45398.58416134836</v>
+        <v>45400.65835567399</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65835742756</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65835905167</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65836087093</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65836251583</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -491,39 +491,39 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65836429918</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65836597222</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65836779066</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65836956315</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.65837137684</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45398.58416152971</v>
+        <v>45400.6583730101</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45398.58416199083</v>
+        <v>45400.65837469392</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45398.58416371293</v>
+        <v>45400.65837646245</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45398.58416529855</v>
+        <v>45400.65837828151</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45398.58416716359</v>
+        <v>45400.65837992493</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -571,31 +571,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45398.58416878387</v>
+        <v>45400.65838163571</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45398.58417056369</v>
+        <v>45400.6583834517</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45398.58417238676</v>
+        <v>45400.65838511092</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45398.58417403859</v>
+        <v>45400.65838694129</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -603,31 +603,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45398.58417588199</v>
+        <v>45400.65838864062</v>
       </c>
       <c r="B21" t="n">
-        <v>810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45398.58417765563</v>
+        <v>45400.65839046893</v>
       </c>
       <c r="B22" t="n">
-        <v>906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45398.58417930756</v>
+        <v>45400.6583920956</v>
       </c>
       <c r="B23" t="n">
-        <v>847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45398.58418115007</v>
+        <v>45400.65839387691</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45398.58418285642</v>
+        <v>45400.65839551929</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -643,31 +643,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45398.58418447865</v>
+        <v>45400.6583973778</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45398.58418629086</v>
+        <v>45400.65839901265</v>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45398.58418812436</v>
+        <v>45400.65840076451</v>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45398.58418973295</v>
+        <v>45400.65840259543</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45398.58419157486</v>
+        <v>45400.65840420963</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45398.58419323059</v>
+        <v>45400.65840603771</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45398.5841949689</v>
+        <v>45400.65840783586</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45398.58419667641</v>
+        <v>45400.65840947082</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45398.58419848154</v>
+        <v>45400.65841128501</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -715,39 +715,39 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45398.58420013687</v>
+        <v>45400.65841293141</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45398.58420195603</v>
+        <v>45400.6584147391</v>
       </c>
       <c r="B36" t="n">
-        <v>910</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45398.58420373721</v>
+        <v>45400.65841636762</v>
       </c>
       <c r="B37" t="n">
-        <v>965</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45398.58420542256</v>
+        <v>45400.65841818497</v>
       </c>
       <c r="B38" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45398.58420722433</v>
+        <v>45400.65841998007</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45398.58420887666</v>
+        <v>45400.65842165005</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -763,31 +763,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45398.58421073084</v>
+        <v>45400.65842343846</v>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45398.58421246281</v>
+        <v>45400.65842507462</v>
       </c>
       <c r="B42" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45398.58421413157</v>
+        <v>45400.65842691273</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45398.58421578496</v>
+        <v>45400.65842856362</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -795,31 +795,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45398.58421760789</v>
+        <v>45400.65843043791</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45398.58421926626</v>
+        <v>45400.65843215076</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45398.58422111195</v>
+        <v>45400.65843392534</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45398.58422278496</v>
+        <v>45400.65843562638</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45398.58422458993</v>
+        <v>45400.65843725851</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -835,31 +835,31 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45398.58422629751</v>
+        <v>45400.65843908705</v>
       </c>
       <c r="B50" t="n">
-        <v>705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45398.58422796877</v>
+        <v>45400.65844075391</v>
       </c>
       <c r="B51" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45398.58422980626</v>
+        <v>45400.65844262433</v>
       </c>
       <c r="B52" t="n">
-        <v>947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45398.58423152944</v>
+        <v>45400.65844428154</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -867,31 +867,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45398.58423329174</v>
+        <v>45400.65844601944</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45398.58423494499</v>
+        <v>45400.65844775997</v>
       </c>
       <c r="B55" t="n">
-        <v>13</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45398.58423676528</v>
+        <v>45400.65844940418</v>
       </c>
       <c r="B56" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45398.58423843268</v>
+        <v>45400.65845123959</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45398.58424026534</v>
+        <v>45400.65845287842</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45398.58424197966</v>
+        <v>45400.65845478899</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45398.58424368849</v>
+        <v>45400.658456422</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45398.58424534577</v>
+        <v>45400.65845825406</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -931,39 +931,39 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45398.58424717992</v>
+        <v>45400.65845989073</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45398.58424885404</v>
+        <v>45400.65846172994</v>
       </c>
       <c r="B63" t="n">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45398.58425068973</v>
+        <v>45400.65846341263</v>
       </c>
       <c r="B64" t="n">
-        <v>960</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45398.58425232564</v>
+        <v>45400.6584650467</v>
       </c>
       <c r="B65" t="n">
-        <v>936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45398.58425416423</v>
+        <v>45400.65846685457</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45398.58425591726</v>
+        <v>45400.65846867905</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -979,23 +979,23 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45398.58425763465</v>
+        <v>45400.65847027145</v>
       </c>
       <c r="B68" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45398.58425928156</v>
+        <v>45400.65847208018</v>
       </c>
       <c r="B69" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45398.58426112188</v>
+        <v>45400.65847389419</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1003,39 +1003,39 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45398.58426269816</v>
+        <v>45400.65847552183</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45398.58426453707</v>
+        <v>45400.65847732866</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45398.58426618013</v>
+        <v>45400.65847916206</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45398.58426805748</v>
+        <v>45400.65848081016</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45398.5842697491</v>
+        <v>45400.65848247229</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45398.58427140655</v>
+        <v>45400.65848428027</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45398.58427324289</v>
+        <v>45400.65848595514</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -1059,63 +1059,63 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45398.58427491933</v>
+        <v>45400.65848780196</v>
       </c>
       <c r="B78" t="n">
-        <v>439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45398.5842767479</v>
+        <v>45400.65848952842</v>
       </c>
       <c r="B79" t="n">
-        <v>948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45398.58427856116</v>
+        <v>45400.65849124734</v>
       </c>
       <c r="B80" t="n">
-        <v>914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45398.58428027116</v>
+        <v>45400.65849291756</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45398.58428195736</v>
+        <v>45400.65849475941</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45398.58428374652</v>
+        <v>45400.65849640497</v>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45398.58428544736</v>
+        <v>45400.65849820244</v>
       </c>
       <c r="B84" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45398.5842870623</v>
+        <v>45400.65850003144</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45398.58428887016</v>
+        <v>45400.65850167045</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45398.5842907025</v>
+        <v>45400.65850333253</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45398.58429234313</v>
+        <v>45400.65850519724</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45398.58429413304</v>
+        <v>45400.65850684598</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1155,31 +1155,31 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45398.58429586877</v>
+        <v>45400.65850868314</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45398.58429760399</v>
+        <v>45400.65851044933</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45398.58429930354</v>
+        <v>45400.65851207503</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45398.58430112293</v>
+        <v>45400.65851390282</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45398.58430275432</v>
+        <v>45400.65851562216</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1195,31 +1195,31 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45398.58430456963</v>
+        <v>45400.65851736918</v>
       </c>
       <c r="B95" t="n">
-        <v>903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45398.58430619473</v>
+        <v>45400.65851902276</v>
       </c>
       <c r="B96" t="n">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45398.58430802605</v>
+        <v>45400.658520841</v>
       </c>
       <c r="B97" t="n">
-        <v>739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45398.58430967927</v>
+        <v>45400.65852254944</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1227,31 +1227,31 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45398.58431142464</v>
+        <v>45400.65852434405</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45398.58431325515</v>
+        <v>45400.65852598268</v>
       </c>
       <c r="B100" t="n">
-        <v>11</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45398.58431507103</v>
+        <v>45400.65852762766</v>
       </c>
       <c r="B101" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45398.58431670966</v>
+        <v>45400.6585294553</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45398.58431835857</v>
+        <v>45400.65853130009</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45398.58432021117</v>
+        <v>45400.65853293744</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45398.58432183325</v>
+        <v>45400.65853477713</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45398.5843236842</v>
+        <v>45400.65853641512</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -1291,55 +1291,55 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45398.58432530148</v>
+        <v>45400.6585382231</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45398.5843271285</v>
+        <v>45400.65853986002</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45398.58432879895</v>
+        <v>45400.65854157766</v>
       </c>
       <c r="B109" t="n">
-        <v>537</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45398.58433062029</v>
+        <v>45400.65854338858</v>
       </c>
       <c r="B110" t="n">
-        <v>933</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45398.58433225637</v>
+        <v>45400.65854519667</v>
       </c>
       <c r="B111" t="n">
-        <v>955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45398.58433409693</v>
+        <v>45400.65854691087</v>
       </c>
       <c r="B112" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45398.58433586456</v>
+        <v>45400.65854864106</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1347,47 +1347,47 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45398.58433749698</v>
+        <v>45400.65855036756</v>
       </c>
       <c r="B114" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45398.58433931198</v>
+        <v>45400.65855209172</v>
       </c>
       <c r="B115" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45398.58434093639</v>
+        <v>45400.65855373632</v>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45398.58434281718</v>
+        <v>45400.65855556895</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45398.58434442171</v>
+        <v>45400.65855721182</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45398.58434623649</v>
+        <v>45400.65855900699</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45398.58434807854</v>
+        <v>45400.65856082477</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45398.58434975408</v>
+        <v>45400.65856247691</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -1411,63 +1411,63 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45398.58435145404</v>
+        <v>45400.65856431099</v>
       </c>
       <c r="B122" t="n">
-        <v>890</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45398.58435321209</v>
+        <v>45400.65856597081</v>
       </c>
       <c r="B123" t="n">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45398.58435505086</v>
+        <v>45400.65856763065</v>
       </c>
       <c r="B124" t="n">
-        <v>678</v>
+        <v>52</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45398.58435668558</v>
+        <v>45400.65856950362</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45398.58435850492</v>
+        <v>45400.65857113314</v>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45398.58436026137</v>
+        <v>45400.65857297496</v>
       </c>
       <c r="B127" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45398.5843618519</v>
+        <v>45400.65857461948</v>
       </c>
       <c r="B128" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45398.58436371689</v>
+        <v>45400.65857644386</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45398.58436533263</v>
+        <v>45400.65857812847</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45398.58436706159</v>
+        <v>45400.65857981411</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45398.58436887563</v>
+        <v>45400.65858163159</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -1499,39 +1499,39 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45398.58437062749</v>
+        <v>45400.65858346232</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45398.58437239647</v>
+        <v>45400.65858513184</v>
       </c>
       <c r="B134" t="n">
-        <v>280</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45398.58437414227</v>
+        <v>45400.65858675277</v>
       </c>
       <c r="B135" t="n">
-        <v>949</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45398.58437580779</v>
+        <v>45400.65858856361</v>
       </c>
       <c r="B136" t="n">
-        <v>954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45398.58437759257</v>
+        <v>45400.65859038122</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45398.58437924551</v>
+        <v>45400.65859202065</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -1547,23 +1547,23 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45398.58438105092</v>
+        <v>45400.65859384248</v>
       </c>
       <c r="B139" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45398.58438287314</v>
+        <v>45400.6585954804</v>
       </c>
       <c r="B140" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45398.58438454755</v>
+        <v>45400.65859727401</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -1571,31 +1571,31 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45398.58438633269</v>
+        <v>45400.6585991113</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45398.58438798558</v>
+        <v>45400.65860075352</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45398.58438976233</v>
+        <v>45400.65860242779</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45398.58439149366</v>
+        <v>45400.6586042393</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45398.58439315263</v>
+        <v>45400.65860606486</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -1611,31 +1611,31 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45398.58439492695</v>
+        <v>45400.65860769279</v>
       </c>
       <c r="B147" t="n">
-        <v>934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45398.58439675971</v>
+        <v>45400.65860940899</v>
       </c>
       <c r="B148" t="n">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45398.58439845289</v>
+        <v>45400.65861121589</v>
       </c>
       <c r="B149" t="n">
-        <v>458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45398.58440011599</v>
+        <v>45400.65861286048</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -1643,31 +1643,31 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45398.58440191614</v>
+        <v>45400.65861460254</v>
       </c>
       <c r="B151" t="n">
-        <v>8</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45398.58440368971</v>
+        <v>45400.65861642364</v>
       </c>
       <c r="B152" t="n">
-        <v>16</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45398.58440532023</v>
+        <v>45400.65861809838</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45398.58440714239</v>
+        <v>45400.65861992642</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45398.58440878198</v>
+        <v>45400.65862158489</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45398.58441059475</v>
+        <v>45400.65862328922</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -1691,71 +1691,71 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45398.5844122385</v>
+        <v>45400.6586250882</v>
       </c>
       <c r="B157" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45398.58441407215</v>
+        <v>45400.65862679436</v>
       </c>
       <c r="B158" t="n">
-        <v>904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45398.58441580126</v>
+        <v>45400.65862861405</v>
       </c>
       <c r="B159" t="n">
-        <v>958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45398.58441753153</v>
+        <v>45400.65863024628</v>
       </c>
       <c r="B160" t="n">
-        <v>556</v>
+        <v>238</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45398.58441927857</v>
+        <v>45400.658632071</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45398.58442107835</v>
+        <v>45400.6586337544</v>
       </c>
       <c r="B162" t="n">
-        <v>8</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45398.58442274592</v>
+        <v>45400.65863556803</v>
       </c>
       <c r="B163" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45398.5844245831</v>
+        <v>45400.65863721281</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45398.58442629203</v>
+        <v>45400.6586390282</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45398.58442797675</v>
+        <v>45400.65864081754</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45398.58442960935</v>
+        <v>45400.65864246971</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45398.58443145556</v>
+        <v>45400.65864413026</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -1787,39 +1787,39 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45398.58443324691</v>
+        <v>45400.65864589596</v>
       </c>
       <c r="B169" t="n">
-        <v>37</v>
+        <v>224</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45398.58443501261</v>
+        <v>45400.65864770969</v>
       </c>
       <c r="B170" t="n">
-        <v>933</v>
+        <v>286</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45398.58443665371</v>
+        <v>45400.65864945562</v>
       </c>
       <c r="B171" t="n">
-        <v>958</v>
+        <v>208</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45398.58443847267</v>
+        <v>45400.65865125876</v>
       </c>
       <c r="B172" t="n">
-        <v>174</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45398.5844401939</v>
+        <v>45400.65865290617</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -1827,23 +1827,23 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45398.58444196817</v>
+        <v>45400.65865465385</v>
       </c>
       <c r="B174" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45398.58444362772</v>
+        <v>45400.65865637374</v>
       </c>
       <c r="B175" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45398.58444537087</v>
+        <v>45400.65865806289</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45398.58444701927</v>
+        <v>45400.6586598849</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -1859,31 +1859,31 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45398.58444884644</v>
+        <v>45400.65866169185</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45398.58445049037</v>
+        <v>45400.65866335396</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45398.58445234643</v>
+        <v>45400.65866512162</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45398.58445398116</v>
+        <v>45400.65866680484</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45398.58445580535</v>
+        <v>45400.65866858862</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45398.58445744171</v>
+        <v>45400.65867020429</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45398.58445929543</v>
+        <v>45400.65867205354</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45398.58446088677</v>
+        <v>45400.65867386199</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45398.58446275926</v>
+        <v>45400.65867552734</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -1931,39 +1931,39 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45398.58446455503</v>
+        <v>45400.65867727559</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45398.5844662397</v>
+        <v>45400.65867891834</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45398.5844679259</v>
+        <v>45400.65868072712</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45398.58446972923</v>
+        <v>45400.65868245884</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45398.58447147549</v>
+        <v>45400.65868429231</v>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45398.58447321106</v>
+        <v>45400.65868596703</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45398.58447495883</v>
+        <v>45400.65868759491</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45398.5844766936</v>
+        <v>45400.65868946299</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45398.58447830603</v>
+        <v>45400.65869110198</v>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -2003,39 +2003,39 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45398.58448018025</v>
+        <v>45400.65869291784</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45398.58448175053</v>
+        <v>45400.65869472025</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45398.58448365662</v>
+        <v>45400.65869643306</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45398.58448537753</v>
+        <v>45400.65869807357</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45398.58448700974</v>
+        <v>45400.65869988417</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45398.58448885668</v>
+        <v>45400.65870160033</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45398.58449061877</v>
+        <v>45400.65870324579</v>
       </c>
       <c r="B202" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45398.58449226926</v>
+        <v>45400.65870505411</v>
       </c>
       <c r="B203" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45398.58449408127</v>
+        <v>45400.65870685148</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -2075,39 +2075,39 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45398.58449581452</v>
+        <v>45400.65870847445</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45398.58449745263</v>
+        <v>45400.65871029406</v>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45398.58449928032</v>
+        <v>45400.65871192191</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45398.58450106139</v>
+        <v>45400.65871371116</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45398.58450262477</v>
+        <v>45400.65871551981</v>
       </c>
       <c r="B209" t="n">
         <v>0</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45398.58450444303</v>
+        <v>45400.65871714733</v>
       </c>
       <c r="B210" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45398.58450627579</v>
+        <v>45400.65871900086</v>
       </c>
       <c r="B211" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45398.58450797224</v>
+        <v>45400.65872062873</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45398.5845095602</v>
+        <v>45400.65872245545</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -2147,39 +2147,39 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45398.58451138261</v>
+        <v>45400.65872419719</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45398.5845131473</v>
+        <v>45400.65872600397</v>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45398.58451488554</v>
+        <v>45400.65872763145</v>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45398.58451670468</v>
+        <v>45400.65872947411</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45398.58451833908</v>
+        <v>45400.65873120201</v>
       </c>
       <c r="B218" t="n">
         <v>0</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45398.58452011436</v>
+        <v>45400.65873298007</v>
       </c>
       <c r="B219" t="n">
         <v>0</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45398.58452175918</v>
+        <v>45400.65873461964</v>
       </c>
       <c r="B220" t="n">
         <v>0</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45398.58452358106</v>
+        <v>45400.65873644534</v>
       </c>
       <c r="B221" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45398.58452529176</v>
+        <v>45400.65873805748</v>
       </c>
       <c r="B222" t="n">
         <v>0</v>
@@ -2219,39 +2219,39 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45398.58452708898</v>
+        <v>45400.6587397476</v>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45398.58452872772</v>
+        <v>45400.65874155591</v>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45398.58453055712</v>
+        <v>45400.65874333052</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45398.58453229423</v>
+        <v>45400.6587449802</v>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45398.58453399726</v>
+        <v>45400.65874687436</v>
       </c>
       <c r="B227" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45398.58453579338</v>
+        <v>45400.65874850287</v>
       </c>
       <c r="B228" t="n">
         <v>0</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45398.58453750912</v>
+        <v>45400.65875022536</v>
       </c>
       <c r="B229" t="n">
         <v>0</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45398.58453926122</v>
+        <v>45400.65875204415</v>
       </c>
       <c r="B230" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45398.58454092097</v>
+        <v>45400.65875367144</v>
       </c>
       <c r="B231" t="n">
         <v>0</v>
@@ -2291,39 +2291,39 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45398.58454276616</v>
+        <v>45400.65875554771</v>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45398.58454443205</v>
+        <v>45400.65875725455</v>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45398.58454606598</v>
+        <v>45400.65875896972</v>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45398.58454788344</v>
+        <v>45400.65876073953</v>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45398.58454952299</v>
+        <v>45400.65876248085</v>
       </c>
       <c r="B236" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45398.58455136564</v>
+        <v>45400.65876412104</v>
       </c>
       <c r="B237" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45398.5845531895</v>
+        <v>45400.65876594522</v>
       </c>
       <c r="B238" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45398.58455483178</v>
+        <v>45400.65876773785</v>
       </c>
       <c r="B239" t="n">
         <v>0</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45398.58455658396</v>
+        <v>45400.65876937166</v>
       </c>
       <c r="B240" t="n">
         <v>0</v>
@@ -2363,39 +2363,39 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45398.58455833492</v>
+        <v>45400.65877120286</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45398.58456002851</v>
+        <v>45400.65877283236</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45398.5845618053</v>
+        <v>45400.6587746368</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45398.58456349015</v>
+        <v>45400.65877631022</v>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45398.58456535787</v>
+        <v>45400.65877795003</v>
       </c>
       <c r="B245" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45398.58456695589</v>
+        <v>45400.65877976228</v>
       </c>
       <c r="B246" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45398.58456882088</v>
+        <v>45400.65878162203</v>
       </c>
       <c r="B247" t="n">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45398.58457039203</v>
+        <v>45400.6587832933</v>
       </c>
       <c r="B248" t="n">
         <v>0</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45398.58457222201</v>
+        <v>45400.65878494165</v>
       </c>
       <c r="B249" t="n">
         <v>0</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45398.58457403969</v>
+        <v>45400.65878672247</v>
       </c>
       <c r="B250" t="n">
         <v>0</v>
@@ -2443,23 +2443,23 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45398.58457569139</v>
+        <v>45400.65878851852</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45398.58457750724</v>
+        <v>45400.65879017802</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45398.58457914662</v>
+        <v>45400.65879202595</v>
       </c>
       <c r="B253" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45398.58458098096</v>
+        <v>45400.65879381156</v>
       </c>
       <c r="B254" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45398.58458260462</v>
+        <v>45400.65879543514</v>
       </c>
       <c r="B255" t="n">
         <v>0</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45398.58458445713</v>
+        <v>45400.65879724397</v>
       </c>
       <c r="B256" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45398.58458610301</v>
+        <v>45400.65879902924</v>
       </c>
       <c r="B257" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45398.58458788067</v>
+        <v>45400.65880066151</v>
       </c>
       <c r="B258" t="n">
         <v>0</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45398.58458952617</v>
+        <v>45400.65880231132</v>
       </c>
       <c r="B259" t="n">
         <v>0</v>
@@ -2515,31 +2515,31 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45398.58459135528</v>
+        <v>45400.65880415557</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45398.5845930076</v>
+        <v>45400.6588059335</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45398.5845947874</v>
+        <v>45400.65880757273</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45398.58459661922</v>
+        <v>45400.65880938647</v>
       </c>
       <c r="B263" t="n">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45398.58459831045</v>
+        <v>45400.65881114615</v>
       </c>
       <c r="B264" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45398.58460004225</v>
+        <v>45400.65881278638</v>
       </c>
       <c r="B265" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45398.58460188089</v>
+        <v>45400.65881460115</v>
       </c>
       <c r="B266" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45398.58460354219</v>
+        <v>45400.65881622868</v>
       </c>
       <c r="B267" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45398.58460535229</v>
+        <v>45400.65881800054</v>
       </c>
       <c r="B268" t="n">
         <v>0</v>
@@ -2587,31 +2587,31 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45398.58460707795</v>
+        <v>45400.6588198359</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45398.58460871353</v>
+        <v>45400.65882146319</v>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45398.58461052761</v>
+        <v>45400.65882324446</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45398.58461217874</v>
+        <v>45400.65882505281</v>
       </c>
       <c r="B272" t="n">
         <v>0</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45398.58461399949</v>
+        <v>45400.65882668614</v>
       </c>
       <c r="B273" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45398.58461563595</v>
+        <v>45400.65882851223</v>
       </c>
       <c r="B274" t="n">
         <v>0</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45398.58461746758</v>
+        <v>45400.6588302411</v>
       </c>
       <c r="B275" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45398.58461909033</v>
+        <v>45400.65883204967</v>
       </c>
       <c r="B276" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45398.58462093012</v>
+        <v>45400.65883367744</v>
       </c>
       <c r="B277" t="n">
         <v>0</v>
@@ -2659,31 +2659,31 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45398.58462258431</v>
+        <v>45400.65883548646</v>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45398.58462444124</v>
+        <v>45400.65883712571</v>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45398.58462611412</v>
+        <v>45400.65883880932</v>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45398.58462793156</v>
+        <v>45400.65884063884</v>
       </c>
       <c r="B281" t="n">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45398.58462956464</v>
+        <v>45400.65884239091</v>
       </c>
       <c r="B282" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45398.58463125684</v>
+        <v>45400.65884419793</v>
       </c>
       <c r="B283" t="n">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45398.58463307926</v>
+        <v>45400.65884582615</v>
       </c>
       <c r="B284" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45398.5846348405</v>
+        <v>45400.65884766595</v>
       </c>
       <c r="B285" t="n">
         <v>0</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45398.58463662321</v>
+        <v>45400.65884928339</v>
       </c>
       <c r="B286" t="n">
         <v>0</v>
@@ -2731,39 +2731,39 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45398.58463825869</v>
+        <v>45400.65885115929</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45398.58464007814</v>
+        <v>45400.65885291219</v>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45398.58464172872</v>
+        <v>45400.65885455313</v>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>213</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45398.58464340273</v>
+        <v>45400.65885636197</v>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45398.58464523348</v>
+        <v>45400.65885799447</v>
       </c>
       <c r="B291" t="n">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45398.58464704852</v>
+        <v>45400.65885984935</v>
       </c>
       <c r="B292" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45398.58464877379</v>
+        <v>45400.65886146344</v>
       </c>
       <c r="B293" t="n">
         <v>0</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45398.58465040841</v>
+        <v>45400.65886330335</v>
       </c>
       <c r="B294" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45398.58465222523</v>
+        <v>45400.65886495109</v>
       </c>
       <c r="B295" t="n">
         <v>0</v>
@@ -2803,39 +2803,39 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45398.58465386558</v>
+        <v>45400.65886669889</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45398.58465563218</v>
+        <v>45400.65886851276</v>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45398.58465747183</v>
+        <v>45400.65887025907</v>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45398.58465911307</v>
+        <v>45400.65887195399</v>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45398.58466081854</v>
+        <v>45400.65887359674</v>
       </c>
       <c r="B300" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45398.58466267026</v>
+        <v>45400.6588754066</v>
       </c>
       <c r="B301" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45398.58466435096</v>
+        <v>45400.65887723049</v>
       </c>
       <c r="B302" t="n">
         <v>0</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45398.58466598889</v>
+        <v>45400.65887888105</v>
       </c>
       <c r="B303" t="n">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45398.58466781394</v>
+        <v>45400.65888070386</v>
       </c>
       <c r="B304" t="n">
         <v>0</v>
@@ -2875,39 +2875,39 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45398.58466965055</v>
+        <v>45400.65888240823</v>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45398.58467130121</v>
+        <v>45400.65888419213</v>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>301</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45398.58467312765</v>
+        <v>45400.65888591539</v>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45398.58467480963</v>
+        <v>45400.65888759054</v>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45398.58467646155</v>
+        <v>45400.65888923396</v>
       </c>
       <c r="B309" t="n">
         <v>0</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45398.58467828451</v>
+        <v>45400.65889103673</v>
       </c>
       <c r="B310" t="n">
         <v>0</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45398.58468003347</v>
+        <v>45400.65889284568</v>
       </c>
       <c r="B311" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45398.58468166714</v>
+        <v>45400.65889451539</v>
       </c>
       <c r="B312" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45398.58468348863</v>
+        <v>45400.65889633347</v>
       </c>
       <c r="B313" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45398.5846853047</v>
+        <v>45400.65889809775</v>
       </c>
       <c r="B314" t="n">
         <v>0</v>
@@ -2955,31 +2955,31 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45398.58468694816</v>
+        <v>45400.65889974382</v>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>309</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45398.58468877214</v>
+        <v>45400.658901608</v>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45398.58469041062</v>
+        <v>45400.65890321902</v>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45398.58469221563</v>
+        <v>45400.6589049881</v>
       </c>
       <c r="B318" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45398.58469386604</v>
+        <v>45400.65890661773</v>
       </c>
       <c r="B319" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45398.58469568907</v>
+        <v>45400.65890843361</v>
       </c>
       <c r="B320" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45398.58469744711</v>
+        <v>45400.65891025802</v>
       </c>
       <c r="B321" t="n">
         <v>0</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45398.58469911187</v>
+        <v>45400.65891194985</v>
       </c>
       <c r="B322" t="n">
         <v>0</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45398.5847009249</v>
+        <v>45400.65891372992</v>
       </c>
       <c r="B323" t="n">
         <v>0</v>
@@ -3027,23 +3027,23 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45398.58470257121</v>
+        <v>45400.65891532965</v>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>279</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45398.58470436501</v>
+        <v>45400.6589171609</v>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45398.58470601368</v>
+        <v>45400.65891883</v>
       </c>
       <c r="B326" t="n">
         <v>0</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45398.58470785324</v>
+        <v>45400.658920674</v>
       </c>
       <c r="B327" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45398.58470948817</v>
+        <v>45400.6589224113</v>
       </c>
       <c r="B328" t="n">
         <v>0</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45398.58471126521</v>
+        <v>45400.65892404752</v>
       </c>
       <c r="B329" t="n">
         <v>0</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45398.58471308118</v>
+        <v>45400.6589258945</v>
       </c>
       <c r="B330" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45398.58471472218</v>
+        <v>45400.65892754656</v>
       </c>
       <c r="B331" t="n">
         <v>0</v>
@@ -3091,39 +3091,39 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45398.58471655169</v>
+        <v>45400.65892934456</v>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45398.58471823105</v>
+        <v>45400.65893114441</v>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45398.5847200237</v>
+        <v>45400.65893277818</v>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45398.58472176576</v>
+        <v>45400.65893456966</v>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45398.58472351631</v>
+        <v>45400.65893620843</v>
       </c>
       <c r="B336" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45398.58472528722</v>
+        <v>45400.6589380334</v>
       </c>
       <c r="B337" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45398.58472700063</v>
+        <v>45400.65893991914</v>
       </c>
       <c r="B338" t="n">
         <v>0</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45398.58472869603</v>
+        <v>45400.65894157306</v>
       </c>
       <c r="B339" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45398.58473049764</v>
+        <v>45400.65894321341</v>
       </c>
       <c r="B340" t="n">
         <v>0</v>
@@ -3163,31 +3163,31 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45398.58473217084</v>
+        <v>45400.65894504064</v>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45398.58473387403</v>
+        <v>45400.65894671497</v>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45398.58473555324</v>
+        <v>45400.65894854399</v>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45398.58473737563</v>
+        <v>45400.6589501804</v>
       </c>
       <c r="B344" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45398.58473902154</v>
+        <v>45400.65895198032</v>
       </c>
       <c r="B345" t="n">
         <v>0</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45398.58474083808</v>
+        <v>45400.65895362676</v>
       </c>
       <c r="B346" t="n">
         <v>0</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45398.58474254442</v>
+        <v>45400.65895544993</v>
       </c>
       <c r="B347" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45398.58474439067</v>
+        <v>45400.65895713419</v>
       </c>
       <c r="B348" t="n">
         <v>0</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45398.58474604779</v>
+        <v>45400.65895892437</v>
       </c>
       <c r="B349" t="n">
         <v>0</v>
@@ -3235,31 +3235,31 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45398.58474783499</v>
+        <v>45400.65896051455</v>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45398.58474953034</v>
+        <v>45400.65896234208</v>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45398.58475131165</v>
+        <v>45400.65896413849</v>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45398.58475306625</v>
+        <v>45400.6589657853</v>
       </c>
       <c r="B353" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45398.58475479788</v>
+        <v>45400.65896760347</v>
       </c>
       <c r="B354" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45398.58475642569</v>
+        <v>45400.65896928816</v>
       </c>
       <c r="B355" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45398.58475824737</v>
+        <v>45400.65897104629</v>
       </c>
       <c r="B356" t="n">
         <v>0</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45398.58476006988</v>
+        <v>45400.65897269564</v>
       </c>
       <c r="B357" t="n">
         <v>0</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45398.58476171058</v>
+        <v>45400.65897450449</v>
       </c>
       <c r="B358" t="n">
         <v>0</v>
@@ -3307,39 +3307,39 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45398.58476353108</v>
+        <v>45400.65897632831</v>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45398.58476523867</v>
+        <v>45400.65897806812</v>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45398.58476697566</v>
+        <v>45400.65897971065</v>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45398.5847687393</v>
+        <v>45400.65898152456</v>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45398.584770389</v>
+        <v>45400.6589832118</v>
       </c>
       <c r="B363" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45398.58477221886</v>
+        <v>45400.65898503723</v>
       </c>
       <c r="B364" t="n">
         <v>0</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45398.58477387058</v>
+        <v>45400.65898668797</v>
       </c>
       <c r="B365" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45398.58477571811</v>
+        <v>45400.6589884291</v>
       </c>
       <c r="B366" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45398.58477741441</v>
+        <v>45400.65899019502</v>
       </c>
       <c r="B367" t="n">
         <v>0</v>
@@ -3379,31 +3379,31 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45398.58477914974</v>
+        <v>45400.65899191645</v>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45398.58478080158</v>
+        <v>45400.65899359516</v>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45398.58478264268</v>
+        <v>45400.65899535263</v>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45398.58478439593</v>
+        <v>45400.65899706107</v>
       </c>
       <c r="B371" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45398.58478605071</v>
+        <v>45400.65899888279</v>
       </c>
       <c r="B372" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45398.58478776353</v>
+        <v>45400.65900056858</v>
       </c>
       <c r="B373" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45398.58478958387</v>
+        <v>45400.65900237721</v>
       </c>
       <c r="B374" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45398.58479126383</v>
+        <v>45400.65900406333</v>
       </c>
       <c r="B375" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45398.58479304585</v>
+        <v>45400.65900583002</v>
       </c>
       <c r="B376" t="n">
         <v>0</v>
@@ -3451,31 +3451,31 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45398.5847947268</v>
+        <v>45400.65900754492</v>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45398.58479647095</v>
+        <v>45400.65900935401</v>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45398.58479829757</v>
+        <v>45400.65901098863</v>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45398.58479996837</v>
+        <v>45400.65901264513</v>
       </c>
       <c r="B380" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45398.58480179919</v>
+        <v>45400.65901439351</v>
       </c>
       <c r="B381" t="n">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45398.58480338383</v>
+        <v>45400.65901620678</v>
       </c>
       <c r="B382" t="n">
         <v>0</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45398.58480524465</v>
+        <v>45400.65901804616</v>
       </c>
       <c r="B383" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45398.58480693059</v>
+        <v>45400.65901965529</v>
       </c>
       <c r="B384" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45398.58480869651</v>
+        <v>45400.65902149321</v>
       </c>
       <c r="B385" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45398.58481035211</v>
+        <v>45400.65902312461</v>
       </c>
       <c r="B386" t="n">
         <v>0</v>
@@ -3531,31 +3531,31 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45398.58481218439</v>
+        <v>45400.65902495168</v>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45398.58481382712</v>
+        <v>45400.65902674588</v>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45398.58481564945</v>
+        <v>45400.65902837524</v>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45398.5848174169</v>
+        <v>45400.65903013508</v>
       </c>
       <c r="B390" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45398.58481911929</v>
+        <v>45400.65903181344</v>
       </c>
       <c r="B391" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45398.58482085806</v>
+        <v>45400.65903369078</v>
       </c>
       <c r="B392" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45398.58482256346</v>
+        <v>45400.65903535431</v>
       </c>
       <c r="B393" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45398.58482432216</v>
+        <v>45400.65903712588</v>
       </c>
       <c r="B394" t="n">
         <v>0</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45398.58482604309</v>
+        <v>45400.65903889559</v>
       </c>
       <c r="B395" t="n">
         <v>0</v>
@@ -3603,31 +3603,31 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45398.58482784325</v>
+        <v>45400.65904054384</v>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45398.58482952203</v>
+        <v>45400.65904237212</v>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>212</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45398.58483130774</v>
+        <v>45400.65904411571</v>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45398.58483300199</v>
+        <v>45400.65904579085</v>
       </c>
       <c r="B399" t="n">
         <v>0</v>
@@ -3635,105 +3635,9 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45398.58483464108</v>
+        <v>45400.65904762531</v>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
-        <v>45398.5848364843</v>
-      </c>
-      <c r="B401" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
-        <v>45398.58483828315</v>
-      </c>
-      <c r="B402" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
-        <v>45398.58483996627</v>
-      </c>
-      <c r="B403" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
-        <v>45398.58484176686</v>
-      </c>
-      <c r="B404" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
-        <v>45398.58484344448</v>
-      </c>
-      <c r="B405" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
-        <v>45398.5848451467</v>
-      </c>
-      <c r="B406" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
-        <v>45398.5848469242</v>
-      </c>
-      <c r="B407" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
-        <v>45398.58484859733</v>
-      </c>
-      <c r="B408" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
-        <v>45398.58485043066</v>
-      </c>
-      <c r="B409" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
-        <v>45398.58485219718</v>
-      </c>
-      <c r="B410" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
-        <v>45398.58485388879</v>
-      </c>
-      <c r="B411" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
-        <v>45398.58485549239</v>
-      </c>
-      <c r="B412" t="n">
         <v>0</v>
       </c>
     </row>
